--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_6.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_6.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9623300586199872</v>
+        <v>0.9211342276766151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6940772358025207</v>
+        <v>0.6758052239592636</v>
       </c>
       <c r="D2" t="n">
-        <v>0.690189760158739</v>
+        <v>0.6511762907779877</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9621181563244188</v>
+        <v>0.4315483067375886</v>
       </c>
       <c r="F2" t="n">
-        <v>0.158092685522582</v>
+        <v>0.3309827752753512</v>
       </c>
       <c r="G2" t="n">
-        <v>2.045706932833347</v>
+        <v>2.167891960164086</v>
       </c>
       <c r="H2" t="n">
-        <v>1.108173264082348</v>
+        <v>1.247722181926366</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2551204550636186</v>
+        <v>0.5967959913996987</v>
       </c>
       <c r="J2" t="n">
-        <v>0.344789236797541</v>
+        <v>1.424677149195269</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3976087090627946</v>
+        <v>0.5753110248164476</v>
       </c>
       <c r="L2" t="n">
-        <v>1.022050697393178</v>
+        <v>0.7296030663198233</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4145357349710926</v>
+        <v>0.5998032062008838</v>
       </c>
       <c r="N2" t="n">
-        <v>133.6891476014325</v>
+        <v>36.21137788680434</v>
       </c>
       <c r="O2" t="n">
-        <v>212.9160762178656</v>
+        <v>56.93226690956374</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9616283246047896</v>
+        <v>0.9214549953364581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6936143809654653</v>
+        <v>0.6721950082520942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.689986166869602</v>
+        <v>0.644985000361619</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9615440269413559</v>
+        <v>0.4955075629661491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1610377130676469</v>
+        <v>0.3296365820264207</v>
       </c>
       <c r="G3" t="n">
-        <v>2.048802045259987</v>
+        <v>2.192033489221443</v>
       </c>
       <c r="H3" t="n">
-        <v>1.108901505472573</v>
+        <v>1.269868068754072</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2589870078831374</v>
+        <v>0.5296475807563152</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3476028859486766</v>
+        <v>1.363469795897897</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4012950449079168</v>
+        <v>0.5741398627742378</v>
       </c>
       <c r="L3" t="n">
-        <v>1.022461468524026</v>
+        <v>0.7307028411535708</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4183790057649089</v>
+        <v>0.5985821853658976</v>
       </c>
       <c r="N3" t="n">
-        <v>133.652233397544</v>
+        <v>36.21952899589566</v>
       </c>
       <c r="O3" t="n">
-        <v>212.8791620139771</v>
+        <v>56.94041801865507</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9609048223590569</v>
+        <v>0.920637410542422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.693136059084285</v>
+        <v>0.6667616260500079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6897714723686101</v>
+        <v>0.6356844825258225</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9609346786621225</v>
+        <v>0.566993507174065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1640740972195531</v>
+        <v>0.3330678105071793</v>
       </c>
       <c r="G4" t="n">
-        <v>2.052000585881911</v>
+        <v>2.228366541025219</v>
       </c>
       <c r="H4" t="n">
-        <v>1.109669455253919</v>
+        <v>1.303135481777707</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2630907471736953</v>
+        <v>0.4545971843015848</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3504481908963811</v>
+        <v>1.291735226927907</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4050606093161283</v>
+        <v>0.5771202738660108</v>
       </c>
       <c r="L4" t="n">
-        <v>1.022884982033723</v>
+        <v>0.727899693288304</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4223048780457708</v>
+        <v>0.6016894787281488</v>
       </c>
       <c r="N4" t="n">
-        <v>133.6148742817601</v>
+        <v>36.19881834915164</v>
       </c>
       <c r="O4" t="n">
-        <v>212.8418028981931</v>
+        <v>56.91970737191105</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9601590623392176</v>
+        <v>0.9205371806465967</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6926420037796843</v>
+        <v>0.6663410896855508</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6895452892327456</v>
+        <v>0.6350284629977235</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9602892572007864</v>
+        <v>0.5712565001268799</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1672038924879458</v>
+        <v>0.3334884539385248</v>
       </c>
       <c r="G5" t="n">
-        <v>2.055304335978691</v>
+        <v>2.231178669630735</v>
       </c>
       <c r="H5" t="n">
-        <v>1.110478499216054</v>
+        <v>1.30548202559152</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2674374262406919</v>
+        <v>0.4501216287957089</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3533281115726411</v>
+        <v>1.287451483451139</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4089057256727347</v>
+        <v>0.5774845919490188</v>
       </c>
       <c r="L5" t="n">
-        <v>1.023321524484361</v>
+        <v>0.7275560479311889</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4263136889661661</v>
+        <v>0.6020693065861928</v>
       </c>
       <c r="N5" t="n">
-        <v>133.5770825963444</v>
+        <v>36.19629407019953</v>
       </c>
       <c r="O5" t="n">
-        <v>212.8040112127775</v>
+        <v>56.91718309295894</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9593905243846457</v>
+        <v>0.9200648318258338</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6921317786504927</v>
+        <v>0.6645570984706577</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6893071333311183</v>
+        <v>0.6322638604536215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9596071079305774</v>
+        <v>0.5883134258498983</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1704292818756967</v>
+        <v>0.33547080089321</v>
       </c>
       <c r="G6" t="n">
-        <v>2.058716213766965</v>
+        <v>2.243108227099249</v>
       </c>
       <c r="H6" t="n">
-        <v>1.111330369067103</v>
+        <v>1.315370848590907</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720314537576053</v>
+        <v>0.4322142058471054</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3562421556212857</v>
+        <v>1.270160401914917</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4128308150752517</v>
+        <v>0.5791984123711063</v>
       </c>
       <c r="L6" t="n">
-        <v>1.023771400360207</v>
+        <v>0.7259365662600015</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4304058775506035</v>
+        <v>0.6038560878917458</v>
       </c>
       <c r="N6" t="n">
-        <v>133.5388696747131</v>
+        <v>36.18444071594549</v>
       </c>
       <c r="O6" t="n">
-        <v>212.7657982911461</v>
+        <v>56.9053297387049</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9585989644161639</v>
+        <v>0.9199277382776182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6916051798875571</v>
+        <v>0.664156895189852</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6890573072019861</v>
+        <v>0.6315365605555265</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9588875843414123</v>
+        <v>0.5925757795868039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1737512897309</v>
+        <v>0.3360461531876712</v>
       </c>
       <c r="G7" t="n">
-        <v>2.062237582119481</v>
+        <v>2.245784388280764</v>
       </c>
       <c r="H7" t="n">
-        <v>1.112223982645258</v>
+        <v>1.317972358155122</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2768771837349752</v>
+        <v>0.4277393214299023</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3591866923885522</v>
+        <v>1.265736977376808</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4168348470688362</v>
+        <v>0.5796948793871404</v>
       </c>
       <c r="L7" t="n">
-        <v>1.02423475253688</v>
+        <v>0.7254665312375481</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4345803694756437</v>
+        <v>0.604373690536481</v>
       </c>
       <c r="N7" t="n">
-        <v>133.5002607433063</v>
+        <v>36.18101353554891</v>
       </c>
       <c r="O7" t="n">
-        <v>212.7271893597393</v>
+        <v>56.90190255830831</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9577838090581222</v>
+        <v>0.9180759484928321</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6910617979653161</v>
+        <v>0.6586630683100638</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6887955352246831</v>
+        <v>0.6233772015648813</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9581300249420028</v>
+        <v>0.6348868487138706</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1771723223885009</v>
+        <v>0.3438177187748546</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06587117953555</v>
+        <v>2.282521633922654</v>
       </c>
       <c r="H8" t="n">
-        <v>1.113160325829659</v>
+        <v>1.347157912157842</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2819790710763149</v>
+        <v>0.3833185258791844</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3621687027016648</v>
+        <v>1.244047833405296</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4209184272379874</v>
+        <v>0.5863597178992215</v>
       </c>
       <c r="L8" t="n">
-        <v>1.024711916648904</v>
+        <v>0.7191175376897102</v>
       </c>
       <c r="M8" t="n">
-        <v>0.438837796106772</v>
+        <v>0.6113222650221392</v>
       </c>
       <c r="N8" t="n">
-        <v>133.4612648944131</v>
+        <v>36.13528729866204</v>
       </c>
       <c r="O8" t="n">
-        <v>212.6881935108462</v>
+        <v>56.85617632142144</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9569445250619004</v>
+        <v>0.9173261163469931</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6905014133216975</v>
+        <v>0.6567301097518059</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6885214876230989</v>
+        <v>0.6205867796532309</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9573334549920762</v>
+        <v>0.6473675329366612</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1806946177788844</v>
+        <v>0.3469646038849477</v>
       </c>
       <c r="G9" t="n">
-        <v>2.069618474227761</v>
+        <v>2.295447336702181</v>
       </c>
       <c r="H9" t="n">
-        <v>1.114140578210333</v>
+        <v>1.357139089537857</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2873436803032484</v>
+        <v>0.370215526271004</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3651874944676859</v>
+        <v>1.245426461187102</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4250818953788604</v>
+        <v>0.5890370140194482</v>
       </c>
       <c r="L9" t="n">
-        <v>1.025203204841814</v>
+        <v>0.7165466846182622</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4431785117059691</v>
+        <v>0.6141135391809709</v>
       </c>
       <c r="N9" t="n">
-        <v>133.4218937344477</v>
+        <v>36.11706502066701</v>
       </c>
       <c r="O9" t="n">
-        <v>212.6488223508808</v>
+        <v>56.83795404342642</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9560808184415435</v>
+        <v>0.9170535798334335</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6899236507811157</v>
+        <v>0.6560542595249557</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6882349797535154</v>
+        <v>0.619618500967031</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9564974480441453</v>
+        <v>0.6514943777022268</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1843194096982129</v>
+        <v>0.3481083813306558</v>
       </c>
       <c r="G10" t="n">
-        <v>2.073481974996983</v>
+        <v>2.299966750281132</v>
       </c>
       <c r="H10" t="n">
-        <v>1.115165400247152</v>
+        <v>1.36060256625437</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2929738833846781</v>
+        <v>0.3658829076115648</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3682399364114398</v>
+        <v>1.245892766058839</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4293243642028867</v>
+        <v>0.5900071027798358</v>
       </c>
       <c r="L10" t="n">
-        <v>1.02570878920495</v>
+        <v>0.7156122737146291</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4476015912109554</v>
+        <v>0.6151249266282488</v>
       </c>
       <c r="N10" t="n">
-        <v>133.3821702081438</v>
+        <v>36.11048281417978</v>
       </c>
       <c r="O10" t="n">
-        <v>212.6090988245768</v>
+        <v>56.83137183693918</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9551921755135229</v>
+        <v>0.9167691731044962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6893281752743969</v>
+        <v>0.6554430553749873</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6879360032746331</v>
+        <v>0.6186303786684415</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9556213722194318</v>
+        <v>0.6556023536111545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.188048853966368</v>
+        <v>0.3493019755309972</v>
       </c>
       <c r="G11" t="n">
-        <v>2.077463922452324</v>
+        <v>2.304053875246307</v>
       </c>
       <c r="H11" t="n">
-        <v>1.116234821776462</v>
+        <v>1.364137022421802</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2988739357946203</v>
+        <v>0.3615700986529982</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3713291522433561</v>
+        <v>1.246359232742397</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4336460007498835</v>
+        <v>0.5910177455296898</v>
       </c>
       <c r="L11" t="n">
-        <v>1.026228970431109</v>
+        <v>0.7146371649297014</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4521072087727788</v>
+        <v>0.616178594532283</v>
       </c>
       <c r="N11" t="n">
-        <v>133.3421069767742</v>
+        <v>36.10363694299939</v>
       </c>
       <c r="O11" t="n">
-        <v>212.5690355932073</v>
+        <v>56.8245259657588</v>
       </c>
     </row>
   </sheetData>
